--- a/Base/Teams/Football Team/Target Depth Data.xlsx
+++ b/Base/Teams/Football Team/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C3">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="C3">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="D3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F3">
         <v>7</v>

--- a/Base/Teams/Football Team/Target Depth Data.xlsx
+++ b/Base/Teams/Football Team/Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="C2">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="C2">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Football Team/Target Depth Data.xlsx
+++ b/Base/Teams/Football Team/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C3">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="C3">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="D3">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E3">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>5</v>

--- a/Base/Teams/Football Team/Target Depth Data.xlsx
+++ b/Base/Teams/Football Team/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="C3">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="C3">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="D3">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E3">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>8</v>

--- a/Base/Teams/Football Team/Target Depth Data.xlsx
+++ b/Base/Teams/Football Team/Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="C2">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="C2">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="D2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>7</v>
